--- a/biology/Botanique/Costus_ricus/Costus_ricus.xlsx
+++ b/biology/Botanique/Costus_ricus/Costus_ricus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Costus ricus est une espèce de plantes à fleurs de la famille des Costaceae.
 Elle trouve son origine du Sud de l'Amérique centrale au Nord de l'Amérique du Sud. Au Costa Rica, Costus ricus est une plante trouvée dans la péninsule d'Osa et les régions environnantes.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Costus ricus est une plante herbacée vivace qui peut mesurer jusqu'à 2 mètres de haut.
 La feuilles a une face supérieure densément couverte de poils raides et une face inférieure de densément soyeuse à glabre. Des poils crépus se trouvent sur les bords des feuilles ainsi que le long de la nervure centrale tout comme sur la gaine foliaire et le pétiole.
